--- a/_from other models/EnergyPLAN/Study 2.xlsx
+++ b/_from other models/EnergyPLAN/Study 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\_from other models\EnergyPlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\_from other models\EnergyPLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F69BC-C742-49E1-92E5-AEF738C355B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BF6F14-1DEF-47F7-8E7C-D2688F9C160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study 2" sheetId="6" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="89">
   <si>
     <t>Model</t>
   </si>
@@ -284,6 +284,42 @@
   </si>
   <si>
     <t>Smart Energy Europe</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Biomass</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Coal</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Gas</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Hydro</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Nuclear</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Oil</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Solar</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Solar|PV</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Wind</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Wind|Offshore</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Wind|Onshore</t>
   </si>
 </sst>
 </file>
@@ -659,20 +695,20 @@
   <dimension ref="A1:XEZ296"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="M186" sqref="M186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +728,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -712,7 +748,7 @@
         <v>671.40049999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -732,7 +768,7 @@
         <v>167.85012499999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -752,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -772,7 +808,7 @@
         <v>503.55037500000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -792,7 +828,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -812,7 +848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -832,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -852,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -872,7 +908,7 @@
         <v>441.49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -892,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -912,7 +948,7 @@
         <v>142.85900000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -932,7 +968,7 @@
         <v>440.86700000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -952,7 +988,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -972,7 +1008,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -992,7 +1028,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="17" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -1012,7 +1048,7 @@
         <v>7940</v>
       </c>
     </row>
-    <row r="18" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -1032,7 +1068,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1052,7 +1088,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="20" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1072,7 +1108,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="21" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1092,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -3841,7 +3877,7 @@
       <c r="XET22" s="4"/>
       <c r="XEZ22" s="4"/>
     </row>
-    <row r="23" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -6590,7 +6626,7 @@
       <c r="XET23" s="4"/>
       <c r="XEZ23" s="4"/>
     </row>
-    <row r="24" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -6610,7 +6646,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="25" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -6630,7 +6666,7 @@
         <v>8.7480000000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -6650,7 +6686,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="27" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -6670,7 +6706,7 @@
         <v>8.9731765258182143</v>
       </c>
     </row>
-    <row r="28" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -6690,7 +6726,7 @@
         <v>4.1207597784508678</v>
       </c>
     </row>
-    <row r="29" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -6710,7 +6746,7 @@
         <v>2.2973246056540586</v>
       </c>
     </row>
-    <row r="30" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -6730,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -6750,7 +6786,7 @@
         <v>2.5550921417132884</v>
       </c>
     </row>
-    <row r="32" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1020 1026:2046 2052:3072 3078:4092 4098:5118 5124:6144 6150:7164 7170:8190 8196:9216 9222:10236 10242:11262 11268:12288 12294:13308 13314:14334 14340:15360 15366:16380" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -6770,7 +6806,7 @@
         <v>1.6059286136631385</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -6790,7 +6826,7 @@
         <v>0.94916352805014959</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -6810,7 +6846,7 @@
         <v>8.9640000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -6830,7 +6866,7 @@
         <v>8.0280000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -6850,7 +6886,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -6870,7 +6906,7 @@
         <v>14.724</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
@@ -6890,7 +6926,7 @@
         <v>5.3280000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -6910,7 +6946,7 @@
         <v>1.8720000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -6930,7 +6966,7 @@
         <v>0.57600000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -6950,7 +6986,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -6970,7 +7006,7 @@
         <v>6.7320000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -6990,7 +7026,7 @@
         <v>116.640675</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -7010,7 +7046,7 @@
         <v>425.03999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -7030,7 +7066,7 @@
         <v>152.31404999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -7050,7 +7086,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>66</v>
       </c>
@@ -7070,7 +7106,7 @@
         <v>678.41536399999995</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -7090,7 +7126,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -7110,7 +7146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -7130,7 +7166,7 @@
         <v>8.0280000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
@@ -7150,7 +7186,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -7170,7 +7206,7 @@
         <v>9.1440000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -7190,7 +7226,7 @@
         <v>10.764000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -7210,7 +7246,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -7230,7 +7266,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -7250,7 +7286,7 @@
         <v>2.3040000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -7270,7 +7306,7 @@
         <v>6.9119999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -7290,7 +7326,7 @@
         <v>9.395999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -7310,7 +7346,7 @@
         <v>2727.223</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -7330,7 +7366,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -7350,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -7370,7 +7406,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -7390,7 +7426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -7410,7 +7446,7 @@
         <v>121.346</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -7430,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -7450,7 +7486,7 @@
         <v>930.76700000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -7470,7 +7506,7 @@
         <v>930.76700000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -7490,7 +7526,7 @@
         <v>1110.1099999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -7510,7 +7546,7 @@
         <v>451.38299999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -7530,7 +7566,7 @@
         <v>658.72699999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -7550,7 +7586,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -7570,7 +7606,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -7590,7 +7626,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -7610,7 +7646,7 @@
         <v>7940</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>66</v>
       </c>
@@ -7630,7 +7666,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -7650,7 +7686,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -7670,7 +7706,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -7690,7 +7726,7 @@
         <v>374.49599999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -7710,7 +7746,7 @@
         <v>-129</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -7730,7 +7766,7 @@
         <v>30.710716277856623</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -7750,7 +7786,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -7770,7 +7806,7 @@
         <v>5.1120000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>66</v>
       </c>
@@ -7790,7 +7826,7 @@
         <v>6.5520000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -7810,7 +7846,7 @@
         <v>8.037863999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>66</v>
       </c>
@@ -7830,7 +7866,7 @@
         <v>5.0101199999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>66</v>
       </c>
@@ -7850,7 +7886,7 @@
         <v>1.0691999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -7870,7 +7906,7 @@
         <v>0.33083999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>66</v>
       </c>
@@ -7890,7 +7926,7 @@
         <v>1.627704</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>66</v>
       </c>
@@ -7910,7 +7946,7 @@
         <v>1.5201</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -7930,7 +7966,7 @@
         <v>0.10760400000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -7950,7 +7986,7 @@
         <v>10.692</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -7970,7 +8006,7 @@
         <v>10.584</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -7990,7 +8026,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -8010,7 +8046,7 @@
         <v>9.3995999999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>66</v>
       </c>
@@ -8030,7 +8066,7 @@
         <v>3.4041600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -8050,7 +8086,7 @@
         <v>2.1729599999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>66</v>
       </c>
@@ -8070,7 +8106,7 @@
         <v>0.93780000000000008</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>66</v>
       </c>
@@ -8090,7 +8126,7 @@
         <v>1.3273200000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -8110,7 +8146,7 @@
         <v>1.5573600000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>66</v>
       </c>
@@ -8130,7 +8166,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>66</v>
       </c>
@@ -8150,7 +8186,7 @@
         <v>449.87999999999994</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -8170,7 +8206,7 @@
         <v>321.11461500000001</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -8190,7 +8226,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -8210,7 +8246,7 @@
         <v>1436.4616919999999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>66</v>
       </c>
@@ -8230,7 +8266,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>66</v>
       </c>
@@ -8250,7 +8286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>66</v>
       </c>
@@ -8270,7 +8306,7 @@
         <v>10.584</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -8290,7 +8326,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>66</v>
       </c>
@@ -8310,7 +8346,7 @@
         <v>1.512</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>66</v>
       </c>
@@ -8330,7 +8366,7 @@
         <v>20.952000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>66</v>
       </c>
@@ -8350,7 +8386,7 @@
         <v>0.14400000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>66</v>
       </c>
@@ -8370,7 +8406,7 @@
         <v>1.4400000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>66</v>
       </c>
@@ -8390,7 +8426,7 @@
         <v>4.8240000000000007</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>66</v>
       </c>
@@ -8410,7 +8446,7 @@
         <v>14.436</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>66</v>
       </c>
@@ -8430,7 +8466,7 @@
         <v>1.6560000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>66</v>
       </c>
@@ -8450,7 +8486,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>66</v>
       </c>
@@ -8470,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -8490,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>66</v>
       </c>
@@ -8510,7 +8546,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -8530,7 +8566,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>66</v>
       </c>
@@ -8550,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>66</v>
       </c>
@@ -8570,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>66</v>
       </c>
@@ -8590,7 +8626,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>66</v>
       </c>
@@ -8610,7 +8646,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>66</v>
       </c>
@@ -8630,7 +8666,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>66</v>
       </c>
@@ -8650,7 +8686,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>66</v>
       </c>
@@ -8670,7 +8706,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>66</v>
       </c>
@@ -8690,7 +8726,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>66</v>
       </c>
@@ -8710,7 +8746,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>66</v>
       </c>
@@ -8730,7 +8766,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>66</v>
       </c>
@@ -8750,7 +8786,7 @@
         <v>7940</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>66</v>
       </c>
@@ -8770,7 +8806,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>66</v>
       </c>
@@ -8790,7 +8826,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>66</v>
       </c>
@@ -8810,7 +8846,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>66</v>
       </c>
@@ -8830,7 +8866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>66</v>
       </c>
@@ -8850,7 +8886,7 @@
         <v>-139</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>66</v>
       </c>
@@ -8870,7 +8906,7 @@
         <v>37.445679890061349</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>66</v>
       </c>
@@ -8890,7 +8926,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>66</v>
       </c>
@@ -8910,7 +8946,7 @@
         <v>7.6039200000000005</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>66</v>
       </c>
@@ -8930,7 +8966,7 @@
         <v>6.444</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>66</v>
       </c>
@@ -8950,7 +8986,7 @@
         <v>9.7997255999999986</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>66</v>
       </c>
@@ -8970,7 +9006,7 @@
         <v>4.3025256000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>66</v>
       </c>
@@ -8990,7 +9026,7 @@
         <v>2.9411999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>66</v>
       </c>
@@ -9010,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>66</v>
       </c>
@@ -9030,7 +9066,7 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>66</v>
       </c>
@@ -9050,7 +9086,7 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>66</v>
       </c>
@@ -9070,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>66</v>
       </c>
@@ -9090,7 +9126,7 @@
         <v>10.944000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>66</v>
       </c>
@@ -9110,7 +9146,7 @@
         <v>10.944000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>66</v>
       </c>
@@ -9130,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>66</v>
       </c>
@@ -9150,7 +9186,7 @@
         <v>8.2764000000000006</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>66</v>
       </c>
@@ -9170,7 +9206,7 @@
         <v>2.9952000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>66</v>
       </c>
@@ -9190,7 +9226,7 @@
         <v>3.4740000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>66</v>
       </c>
@@ -9210,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>66</v>
       </c>
@@ -9230,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>66</v>
       </c>
@@ -9250,7 +9286,7 @@
         <v>1.8072000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>66</v>
       </c>
@@ -9270,7 +9306,7 @@
         <v>194.4</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>66</v>
       </c>
@@ -9290,7 +9326,7 @@
         <v>425.03999999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>66</v>
       </c>
@@ -9310,7 +9346,7 @@
         <v>362.25</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>66</v>
       </c>
@@ -9330,7 +9366,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>66</v>
       </c>
@@ -9350,7 +9386,7 @@
         <v>2065.0149999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>66</v>
       </c>
@@ -9370,7 +9406,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>66</v>
       </c>
@@ -9390,7 +9426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>66</v>
       </c>
@@ -9410,7 +9446,7 @@
         <v>10.944000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>66</v>
       </c>
@@ -9430,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>66</v>
       </c>
@@ -9450,7 +9486,7 @@
         <v>-0.14400000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>66</v>
       </c>
@@ -9470,7 +9506,7 @@
         <v>28.296000000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>66</v>
       </c>
@@ -9490,7 +9526,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>66</v>
       </c>
@@ -9510,7 +9546,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>66</v>
       </c>
@@ -9530,7 +9566,7 @@
         <v>5.4720000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>66</v>
       </c>
@@ -9550,7 +9586,7 @@
         <v>21.240000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>66</v>
       </c>
@@ -9570,126 +9606,814 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="296" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>66</v>
+      </c>
+      <c r="B173" t="s">
+        <v>76</v>
+      </c>
+      <c r="C173" t="s">
+        <v>70</v>
+      </c>
+      <c r="D173" t="s">
+        <v>77</v>
+      </c>
+      <c r="E173" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173">
+        <v>28.764000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" t="s">
+        <v>76</v>
+      </c>
+      <c r="C174" t="s">
+        <v>70</v>
+      </c>
+      <c r="D174" t="s">
+        <v>78</v>
+      </c>
+      <c r="E174" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" t="s">
+        <v>76</v>
+      </c>
+      <c r="C175" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" t="s">
+        <v>79</v>
+      </c>
+      <c r="E175" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>66</v>
+      </c>
+      <c r="B176" t="s">
+        <v>76</v>
+      </c>
+      <c r="C176" t="s">
+        <v>70</v>
+      </c>
+      <c r="D176" t="s">
+        <v>80</v>
+      </c>
+      <c r="E176" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" t="s">
+        <v>70</v>
+      </c>
+      <c r="D177" t="s">
+        <v>81</v>
+      </c>
+      <c r="E177" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177">
+        <v>1.3680000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>66</v>
+      </c>
+      <c r="B178" t="s">
+        <v>76</v>
+      </c>
+      <c r="C178" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" t="s">
+        <v>82</v>
+      </c>
+      <c r="E178" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" t="s">
+        <v>76</v>
+      </c>
+      <c r="C179" t="s">
+        <v>70</v>
+      </c>
+      <c r="D179" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" t="s">
+        <v>28</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" t="s">
+        <v>76</v>
+      </c>
+      <c r="C180" t="s">
+        <v>70</v>
+      </c>
+      <c r="D180" t="s">
+        <v>84</v>
+      </c>
+      <c r="E180" t="s">
+        <v>28</v>
+      </c>
+      <c r="F180">
+        <v>5.4720000000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" t="s">
+        <v>76</v>
+      </c>
+      <c r="C181" t="s">
+        <v>70</v>
+      </c>
+      <c r="D181" t="s">
+        <v>85</v>
+      </c>
+      <c r="E181" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181">
+        <v>5.4720000000000004</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" t="s">
+        <v>76</v>
+      </c>
+      <c r="C182" t="s">
+        <v>70</v>
+      </c>
+      <c r="D182" t="s">
+        <v>86</v>
+      </c>
+      <c r="E182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182">
+        <v>21.240000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" t="s">
+        <v>76</v>
+      </c>
+      <c r="C183" t="s">
+        <v>70</v>
+      </c>
+      <c r="D183" t="s">
+        <v>87</v>
+      </c>
+      <c r="E183" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183">
+        <v>5.0759999999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>66</v>
+      </c>
+      <c r="B184" t="s">
+        <v>76</v>
+      </c>
+      <c r="C184" t="s">
+        <v>70</v>
+      </c>
+      <c r="D184" t="s">
+        <v>88</v>
+      </c>
+      <c r="E184" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184">
+        <v>16.164000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" s="1">
+        <v>26.064</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0.7632000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1.1448</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" s="1">
+        <v>1.4400000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190" s="1">
+        <v>3.456</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F192" s="1">
+        <v>4.8240000000000007</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" s="1">
+        <v>4.8240000000000007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F194" s="1">
+        <v>14.436</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F195" s="1">
+        <v>7.7760000000000007</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196" s="1">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197" t="s">
+        <v>72</v>
+      </c>
+      <c r="C197" t="s">
+        <v>70</v>
+      </c>
+      <c r="D197" t="s">
+        <v>77</v>
+      </c>
+      <c r="E197" t="s">
+        <v>28</v>
+      </c>
+      <c r="F197">
+        <v>15.840000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>66</v>
+      </c>
+      <c r="B198" t="s">
+        <v>72</v>
+      </c>
+      <c r="C198" t="s">
+        <v>70</v>
+      </c>
+      <c r="D198" t="s">
+        <v>78</v>
+      </c>
+      <c r="E198" t="s">
+        <v>28</v>
+      </c>
+      <c r="F198">
+        <v>0.69300000000000006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>66</v>
+      </c>
+      <c r="B199" t="s">
+        <v>72</v>
+      </c>
+      <c r="C199" t="s">
+        <v>70</v>
+      </c>
+      <c r="D199" t="s">
+        <v>79</v>
+      </c>
+      <c r="E199" t="s">
+        <v>28</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>66</v>
+      </c>
+      <c r="B200" t="s">
+        <v>72</v>
+      </c>
+      <c r="C200" t="s">
+        <v>70</v>
+      </c>
+      <c r="D200" t="s">
+        <v>80</v>
+      </c>
+      <c r="E200" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200">
+        <v>2.0790000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>66</v>
+      </c>
+      <c r="B201" t="s">
+        <v>72</v>
+      </c>
+      <c r="C201" t="s">
+        <v>70</v>
+      </c>
+      <c r="D201" t="s">
+        <v>81</v>
+      </c>
+      <c r="E201" t="s">
+        <v>28</v>
+      </c>
+      <c r="F201">
+        <v>1.3680000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>66</v>
+      </c>
+      <c r="B202" t="s">
+        <v>72</v>
+      </c>
+      <c r="C202" t="s">
+        <v>70</v>
+      </c>
+      <c r="D202" t="s">
+        <v>82</v>
+      </c>
+      <c r="E202" t="s">
+        <v>28</v>
+      </c>
+      <c r="F202">
+        <v>2.484</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>66</v>
+      </c>
+      <c r="B203" t="s">
+        <v>72</v>
+      </c>
+      <c r="C203" t="s">
+        <v>70</v>
+      </c>
+      <c r="D203" t="s">
+        <v>83</v>
+      </c>
+      <c r="E203" t="s">
+        <v>28</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>66</v>
+      </c>
+      <c r="B204" t="s">
+        <v>72</v>
+      </c>
+      <c r="C204" t="s">
+        <v>70</v>
+      </c>
+      <c r="D204" t="s">
+        <v>84</v>
+      </c>
+      <c r="E204" t="s">
+        <v>28</v>
+      </c>
+      <c r="F204">
+        <v>2.3040000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>66</v>
+      </c>
+      <c r="B205" t="s">
+        <v>72</v>
+      </c>
+      <c r="C205" t="s">
+        <v>70</v>
+      </c>
+      <c r="D205" t="s">
+        <v>85</v>
+      </c>
+      <c r="E205" t="s">
+        <v>28</v>
+      </c>
+      <c r="F205">
+        <v>2.3040000000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>66</v>
+      </c>
+      <c r="B206" t="s">
+        <v>72</v>
+      </c>
+      <c r="C206" t="s">
+        <v>70</v>
+      </c>
+      <c r="D206" t="s">
+        <v>86</v>
+      </c>
+      <c r="E206" t="s">
+        <v>28</v>
+      </c>
+      <c r="F206">
+        <v>6.9120000000000008</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" t="s">
+        <v>72</v>
+      </c>
+      <c r="C207" t="s">
+        <v>70</v>
+      </c>
+      <c r="D207" t="s">
+        <v>87</v>
+      </c>
+      <c r="E207" t="s">
+        <v>28</v>
+      </c>
+      <c r="F207">
+        <v>2.4480000000000004</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>66</v>
+      </c>
+      <c r="B208" t="s">
+        <v>72</v>
+      </c>
+      <c r="C208" t="s">
+        <v>70</v>
+      </c>
+      <c r="D208" t="s">
+        <v>88</v>
+      </c>
+      <c r="E208" t="s">
+        <v>28</v>
+      </c>
+      <c r="F208">
+        <v>4.4640000000000004</v>
+      </c>
+    </row>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:F115" xr:uid="{58B23F77-0785-4B1B-9CC9-A30B8A87ED78}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
